--- a/data/hotels_by_city/Houston/Houston_shard_435.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_435.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="637">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1511925-Reviews-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
   </si>
   <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Houston-Channelview.h2920120.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531356743151&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=9e82f0fa-fe21-4944-bfa6-7f3bb1b8bb56&amp;mctc=9&amp;exp_dp=104&amp;exp_ts=1531356743786&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1789 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r601947107-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1511925</t>
+  </si>
+  <si>
+    <t>601947107</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Houston Channelview</t>
+  </si>
+  <si>
+    <t>Great stay. Clean, staff courtesy and accomodating. Food wasn't great but coffee was wonderful and available at all hours. I would stay again if ever in the area. Centrally Located to shopping area. Bar expensive but bartender kept it lively.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r595100030-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595100030</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>My husband and I were there this past weekend for our sons basketball tournament and the outside was of the hotel was absolutely amazing and I especially loved the two fireplaces in the lobby they are so beautiful. The hotel was very clean and the King Executive Suite was fresh and clean and the bed was like sleeping on clouds and great customer service. The breakfast was delicious as well. I give this hotel 10 stars</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r591403368-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591403368</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Business trip with pet pal...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel. Nice and tidy rooms. Plenty of towels and fresh service. Beds need heavier blankets. Current blankets too thin.When asked for additional customer service for my dog, the manager very quickly refused. I felt customer service seriously lacked. No going above and beyond to help me. Nice people, but unwilling to help. I would've given 5 stars, but due to lack of assistance from GM, the grade drops to 2 star.Sorry... I look for and expect, above and beyond.    Oh, the ladies in maid services were the only ones offering help. Maid service offered me and not the GM.Amazing </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r577786608-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577786608</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>La Quinta Houston Channelview</t>
+  </si>
+  <si>
+    <t>On a business trip not 8 minutes from my office. Dining and shopping conveniently located within 5 minutes away from the La Quinta. Rooms were upgraded "the balcony room" a treat with an amazing morning view. Hospitality was consistent and the evening Bar served awesome "hot wings". A family stay should be an idea if  planning a short vacation. Overall a great experience, location and price.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>lq6489gm, Director of Sales at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>On a business trip not 8 minutes from my office. Dining and shopping conveniently located within 5 minutes away from the La Quinta. Rooms were upgraded "the balcony room" a treat with an amazing morning view. Hospitality was consistent and the evening Bar served awesome "hot wings". A family stay should be an idea if  planning a short vacation. Overall a great experience, location and price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r577106661-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577106661</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Channelview La Quinta</t>
+  </si>
+  <si>
+    <t>This is the 2nd time to stay at this location; both times were enjoyable and the staff friendly and professional.  The complementary breakfast was good and offer some daily changes to breakfast items. I will definitely stay there again the next time I'm in the area visiting.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the 2nd time to stay at this location; both times were enjoyable and the staff friendly and professional.  The complementary breakfast was good and offer some daily changes to breakfast items. I will definitely stay there again the next time I'm in the area visiting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r570106485-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570106485</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Everyone was so helpful and friendly. Rooms were very nice and spacious. Facility was very clean. Breakfasts were great - nice variety of food. Would definitely recommend this location for anyone staying in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Everyone was so helpful and friendly. Rooms were very nice and spacious. Facility was very clean. Breakfasts were great - nice variety of food. Would definitely recommend this location for anyone staying in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r565066072-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565066072</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Love this La Quinta</t>
+  </si>
+  <si>
+    <t>Couldn't be happier with my stay at this hotel!  Staff went out of their way to make his a pleasant experience.  Beautiful, very clean hotel that has been renovated in last 2 years.  Fantastic breakfast!  They also have a Bistro in the Lobby area where you can get a drink and hot appetizers. Don't hesitate to book a room here.MoreShow less</t>
+  </si>
+  <si>
+    <t>lq6489gm, General Manager at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Couldn't be happier with my stay at this hotel!  Staff went out of their way to make his a pleasant experience.  Beautiful, very clean hotel that has been renovated in last 2 years.  Fantastic breakfast!  They also have a Bistro in the Lobby area where you can get a drink and hot appetizers. Don't hesitate to book a room here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r553654500-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553654500</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good and bad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good- The room was great for our family of 5. Plenty of sitting room besides the beds. The breakfast was good. Bad - we specifically chose this hotel so that we could swim indoors at night (we stayed 3 nights just after Christmas). The pool room temp was so cold that no one would swim. We aren’t wimps - Two of my teens are swim team kids. Though nice people, the the front desk explained some reason why the system wouldn’t warm up enough. Big disappointment! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r543449352-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543449352</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r520209174-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520209174</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>The management and staff went out of their way to take care of us despite the presence of hurricane Harvey and it's affect on their personal lives. Service business's were closed everywhere and some staff were unable to get to work, but other staff stayed day and night to somehow take care of us including breakfast every day. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2017</t>
+  </si>
+  <si>
+    <t>The management and staff went out of their way to take care of us despite the presence of hurricane Harvey and it's affect on their personal lives. Service business's were closed everywhere and some staff were unable to get to work, but other staff stayed day and night to somehow take care of us including breakfast every day. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r516677460-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516677460</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Beautifully Updated</t>
+  </si>
+  <si>
+    <t>Altho remodel was estimated about 2 yrs ago by staff, this property glistens new, all staff very friendly and helpful, take pride in their gem. Nice size King room with fridge and micro had plenty of room for us and our boxer. Very nice new bathroom and accommodations, comfortable bed. Very nice full hot breakfast. Their "Bistro" area was very nice, including 2 bar areas for happy hour featuring a goood beer &amp; wine selection with a "small bites" menu enough for a light dinner. Also a small patio seating area outside the bistro weather permitting. After a long drive, we were very happy to try the small bites. Boneless chicken wings were great.Nice job all around, La Quinta!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Altho remodel was estimated about 2 yrs ago by staff, this property glistens new, all staff very friendly and helpful, take pride in their gem. Nice size King room with fridge and micro had plenty of room for us and our boxer. Very nice new bathroom and accommodations, comfortable bed. Very nice full hot breakfast. Their "Bistro" area was very nice, including 2 bar areas for happy hour featuring a goood beer &amp; wine selection with a "small bites" menu enough for a light dinner. Also a small patio seating area outside the bistro weather permitting. After a long drive, we were very happy to try the small bites. Boneless chicken wings were great.Nice job all around, La Quinta!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r512172996-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512172996</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Typical</t>
+  </si>
+  <si>
+    <t>The hotel was clean and staff was friendly. Bright light from the parking lot was i possible to block from the room and walls are rather thin so you hear every door open, people walk in the room above you, etc. Bery average hotel. For the price there are better things in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r508377047-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508377047</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Business Travel</t>
+  </si>
+  <si>
+    <t>The hotel was great and the staff was very friendly! I would recommend this location for business and pleasure. Great location that's near anything you need. I will definitely be coming back to stay with them in the future!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r506664975-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506664975</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>SUPER NICE STAY!!</t>
+  </si>
+  <si>
+    <t>This place rocks!  BEST staff around and very very clean. Indoor pool, rooms with balconies, nice gazebo areas outside, great breakfast included ... and convenient to major highways, shopping, eateries, etc.  Can't beat the price either!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r505954214-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505954214</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Morgan's road trip</t>
+  </si>
+  <si>
+    <t>We needed a place to rest before getting back on the road so we choose La Quinta. The hotel was nice bed slept good the only problem we had was the AC didn't blow good. The Breakfast was amazing and the hotel was clean. I'd recommend this Hotel to family and friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r489766772-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489766772</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>always have a excellent time here and other friends agree.this is our second time staying here and love it.it feels very comfortable staying here and makes you feel like you hate leaving.we all plan on going back in the future.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r481764063-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481764063</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>LAST MINUTE TRIP</t>
+  </si>
+  <si>
+    <t>We had an emergency business trip to Houston. We were pleased to find a hotel with an indoor pool, good breakfast and close to where my husband had to work, At a great price with military discount. Staff was very helpful.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r479050425-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479050425</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This LaQuinta Hotel was everything we were looking for. Our room was clean and smelled fresh. Bathroom was clean. Staff was friendly and helpful. Breakfast buffet was adequate. Price was right. Would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r474782327-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474782327</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>COMFY STAY</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights and both nights were very comfortable. I will stay at this hotel when we come to Houston again!!!! The staff was wonderful and very helpful in answering questions. check in was timely as we were able to check in early.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r471559397-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471559397</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>great for private and company functions reunoins weddings just all around events no need to shop around its all right he</t>
+  </si>
+  <si>
+    <t>I had a great time all of the staff was very helpful and attentitave no need to ask for what I needed it was like they were reading my mind. I would recommend this hotel chain to any one so in love with this place I started to do a extended stay for about 2 weeks</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r469766259-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469766259</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Love Laquinta</t>
+  </si>
+  <si>
+    <t>The place was awesome except the loud neighbors. That usually doesn't happen at LaQuinta. Beds were comfortable and breakfast was good. Lots of resturants within 1 mile with shopping. Easy access to get to.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r465427950-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465427950</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Don't pay extra for kitchen suite..very disappointing!</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights while in town visiting our son in college.  I picked this property due to location and mainly because they offer a full kitchen one bedroom suite. I was planning on cooking and freezing meals for our son.  Positive--pretty clean hotel-decent typical hotel breakfast buffet-close to restaurants and grocery store-security at night in parking lotWhy I will probably not return--Full kitchen (full fridge, oven, stove microwave and even a garbage disposal) with NO SUPPLIES (not one fork, glass, pot, spatula....NOTHING..and I mean nothing.  This was not shared with me when I called directly and booked this room.  I can pay less and stay at a property that comes with a kitchenette fully stocked- pull out sofa was just horrible-bathroom needed a bit more cleaning (door was filthy)MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights while in town visiting our son in college.  I picked this property due to location and mainly because they offer a full kitchen one bedroom suite. I was planning on cooking and freezing meals for our son.  Positive--pretty clean hotel-decent typical hotel breakfast buffet-close to restaurants and grocery store-security at night in parking lotWhy I will probably not return--Full kitchen (full fridge, oven, stove microwave and even a garbage disposal) with NO SUPPLIES (not one fork, glass, pot, spatula....NOTHING..and I mean nothing.  This was not shared with me when I called directly and booked this room.  I can pay less and stay at a property that comes with a kitchenette fully stocked- pull out sofa was just horrible-bathroom needed a bit more cleaning (door was filthy)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r465139716-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465139716</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Nice and new at the time of visit</t>
+  </si>
+  <si>
+    <t>This hotel is new/remodeled as of my visit.  It was quite nice, the rooms were big, and everything was very quiet.  It's pretty much exactly what you want for a short stay for business.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r449786733-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449786733</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Nice remodel</t>
+  </si>
+  <si>
+    <t>This La Quinta has been recently remodeled and looks great.  Staff are always friendly and responsive.  Easy access to the airport from this location and quick drives to Kemah and NASA. Price is always good here.  This was our fourth time to stay at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>lq6489gm, Director of Sales at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>This La Quinta has been recently remodeled and looks great.  Staff are always friendly and responsive.  Easy access to the airport from this location and quick drives to Kemah and NASA. Price is always good here.  This was our fourth time to stay at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r427564104-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427564104</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Great Service, Great Staff</t>
+  </si>
+  <si>
+    <t>If your looking for a mid range Hotel in Houston this is it. Great Service, Great Staff, Security.  As any Hotel their can be little issues but once addressed they get on it.  Amy and Selena and forgive me (forgot their names) other front desk Personal are Gracious to the Guest.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r425852832-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425852832</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Excellent, comfortable</t>
+  </si>
+  <si>
+    <t>I liked this hotel, room was excellent, 2 bed queen suite, large room, very clean, nice bathroom - just a little small.  Good value for the room size.  Has a large sofa unit with a sleeper in it.  Comfortable and roomy.MoreShow less</t>
+  </si>
+  <si>
+    <t>lq6489gm, Director of Sales at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>I liked this hotel, room was excellent, 2 bed queen suite, large room, very clean, nice bathroom - just a little small.  Good value for the room size.  Has a large sofa unit with a sleeper in it.  Comfortable and roomy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r424585561-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>424585561</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>Highly recommend this hotel.  Security, staff, room and breakfast were all excellent.  Definitely will stay at this location on next trip.  Hotel was very clean, no issues.  Breakfast had a nice assortment and all food was at appropriate temperature.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>lq6489gm, Director of Sales at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Highly recommend this hotel.  Security, staff, room and breakfast were all excellent.  Definitely will stay at this location on next trip.  Hotel was very clean, no issues.  Breakfast had a nice assortment and all food was at appropriate temperature.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r423472676-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423472676</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>I stay here when I have to work late (after 12am) and go back to work early ( before 8am). Love it here.  The front desk clerk is awesome, he remembered me from a stay one year ago, and hes very helpful.  Never any problems.  The rooms Ive had have always been very neat, and clean. No problems here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here when I have to work late (after 12am) and go back to work early ( before 8am). Love it here.  The front desk clerk is awesome, he remembered me from a stay one year ago, and hes very helpful.  Never any problems.  The rooms Ive had have always been very neat, and clean. No problems here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r413283493-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413283493</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>At first I though staying right on the interstate would be loud and possibly not safe in that area. But they had a security officer that rides around at night checking plates which made me feel safer. It was nice and clean and the noise was not bad at all! I actually got a decent night sleep which isn't normal for me :) And the breakfast options were good! If I had to stay in this area again I would definitely stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>lq6489gm, Manager at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>At first I though staying right on the interstate would be loud and possibly not safe in that area. But they had a security officer that rides around at night checking plates which made me feel safer. It was nice and clean and the noise was not bad at all! I actually got a decent night sleep which isn't normal for me :) And the breakfast options were good! If I had to stay in this area again I would definitely stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r410871308-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410871308</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Family Reunion Meeting</t>
+  </si>
+  <si>
+    <t>The hotel was clean and nice.  It was a little tricky to find.  I had to exit and go up and come back around because it is just before the exit. I had a hard time connecting up my portable tv streaming unit. Overall god experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r398683554-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398683554</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>had an awesome Stay</t>
+  </si>
+  <si>
+    <t>the whole entire staff was so nice and very courteous. we used them on our wedding night and when we arrived the staff had gave us a card and a basket of goodies and sparkling wine.. they were so sweet even down to the security guard when we wanted to stay out late after the wedding..this was a great Hotel to stay out and appreciate all from Amy Lomax to the staff to security.. rooms were very clean and breakfast was great.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r394555172-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394555172</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>The outside of the hotel is beautiful , it is very clean, I felt safe and the staff was great, the breakfast buffet was o.k., there's easy access the to highways and expressways, there's  plenty of shopping close by.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r386343580-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386343580</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bed was comfy, pillows abundant, and it was clean.  The towels were soft and toiletries nice... that bar soap with the bumps on it and Pantene products made it feel a little nicer than usual.  The continental breakfast was nice and had turkey sausage a couple of the days. Things I didn't like: the air conditioner was VERY loud and you had to turn up the TV when it kicked on.  I also thought the Texas shaped waffle maker was a cute idea but would have liked fresh fruit other than banana's and apples.  </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r382892028-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382892028</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>La Quinta had a wonderful room, spacious with all refrigerator, microwave. The room was spotless and the beds comfortable. We had free wifi and free parking. The hotel itself was beautiful. There was a TV downstairs with a small bar for beer, wine and hot appetizers to watch a game in a social setting. The prices for the bar were reasonable. Just down the road you can pick up a meal at multiple better fast food such as Chipolte. If you don't want to leave the property, they have a small selection of microwave meals, snacks and drinks. Breakfast is included with your room, and offers a variety of cold and hot items. One can fill up with a nice hearty breakfast, plenty of seating too. Nice place to end a long day on the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>La Quinta had a wonderful room, spacious with all refrigerator, microwave. The room was spotless and the beds comfortable. We had free wifi and free parking. The hotel itself was beautiful. There was a TV downstairs with a small bar for beer, wine and hot appetizers to watch a game in a social setting. The prices for the bar were reasonable. Just down the road you can pick up a meal at multiple better fast food such as Chipolte. If you don't want to leave the property, they have a small selection of microwave meals, snacks and drinks. Breakfast is included with your room, and offers a variety of cold and hot items. One can fill up with a nice hearty breakfast, plenty of seating too. Nice place to end a long day on the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r382661155-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382661155</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Awesome service and beautiful hotel!</t>
+  </si>
+  <si>
+    <t>Everything at this hotel is clean. The employees are so nice and helpful. The hotel is beautiful, especially the lobby. The free breakfast is amazing and there are so many options to pick from! Room, beds, floors, and bathrooms are CLEAN! This place is a dream for someone on a budget.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r377364190-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377364190</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Hmmm... Room Switched</t>
+  </si>
+  <si>
+    <t>Checked into Room 428 with deck.  There was a strong smoke smell so the front desk gave me Room 101.  What a good difference, no smoke.  Trouble was the noise from some conference room event down the hallway.  But I needed to rest from a long day.  Didn't like my stay.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r368341993-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368341993</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Good clean hotel.</t>
+  </si>
+  <si>
+    <t>The Laquinta Channelview is a very clean, well run hotel, with excellent staff.  I stayed in a two room suite with kitchenette and it was super clean.  The breakfasts were good and the seating area in the lobby was very clean and well maintained.  The small bar was friendly and staff are very well trained.  Every person I dealt with in the 11 days I stayed was friendly and helpful, I wish all hotels were like this because they would make traveling a whole lot better.  The small workout area was also very neat and well maintained, the only gripe I have is a personal preference I have with the treadmill, I walked about 5 miles every night on it and it has a plastic type belt which is slippery compared to most that I have used elsewhere, it took me a couple days to adjust to how I took my steps but after a couple days I got used to the slippery belt and it wasn't a problem.  The pool area and the patio area are very nice.  I would recommend this hotel to anyone who is particular about cleanliness.  There are a ton of choices for eating and shopping nearby which makes this a perfect location for people traveling for work or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The Laquinta Channelview is a very clean, well run hotel, with excellent staff.  I stayed in a two room suite with kitchenette and it was super clean.  The breakfasts were good and the seating area in the lobby was very clean and well maintained.  The small bar was friendly and staff are very well trained.  Every person I dealt with in the 11 days I stayed was friendly and helpful, I wish all hotels were like this because they would make traveling a whole lot better.  The small workout area was also very neat and well maintained, the only gripe I have is a personal preference I have with the treadmill, I walked about 5 miles every night on it and it has a plastic type belt which is slippery compared to most that I have used elsewhere, it took me a couple days to adjust to how I took my steps but after a couple days I got used to the slippery belt and it wasn't a problem.  The pool area and the patio area are very nice.  I would recommend this hotel to anyone who is particular about cleanliness.  There are a ton of choices for eating and shopping nearby which makes this a perfect location for people traveling for work or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r362177448-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362177448</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Becoming a new fan</t>
+  </si>
+  <si>
+    <t>I'll be honest, LaQuinta fell to the lower ranks of my hotel choices a few years back.  In the last six months, I've visited at least 8 different properties in Texas, Oklahoma, Arizona and Kansas and have been very impressed.  Recently updated rooms, great staff (love the quickie marts-or whatever you call them-in the lobby)...LaQuinta is becoming my new go-to travel accommodation (and I travel a lot, folks...)...I'm impressed!  This location is no different.  Very happy and, again, impressed!!  You are on the right path, my friends.  ROCK ON LAQUINTA!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r357617732-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357617732</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>PetroQuip</t>
+  </si>
+  <si>
+    <t>Please allow guess to watch whatever they would like at the bar as long as everyone’s in agreement. Employees should be allowed to watch programs with their back turned to the TV, than tell the guess she’s not watching it she’s listing to it.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r340516511-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340516511</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>Great customer service. Would absolutely stay again for future business trip.  All staff friendly and helpful.  Very clean.  Would recommend to family and friends.  Thanks to the management team and all the staff for a pleasant stay.  I was there for two weeks.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>lq6489gm, Manager at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Great customer service. Would absolutely stay again for future business trip.  All staff friendly and helpful.  Very clean.  Would recommend to family and friends.  Thanks to the management team and all the staff for a pleasant stay.  I was there for two weeks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r339210768-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339210768</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Great Accommodations w/ Nice Attention to the Extras</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel because we were attending a dog sport event in Houston. My spouse and I were traveling with two dogs. The staff was friendly and accommodating and the rooms were very clean. We stayed on the fourth floor away from the stairwell and we didn't hear a bit of noise.  Breakfast offered a lot of choices. If  you're traveling with pets, you will appreciate the plentiful potty break areas for the dogs. I would definitely stay here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel because we were attending a dog sport event in Houston. My spouse and I were traveling with two dogs. The staff was friendly and accommodating and the rooms were very clean. We stayed on the fourth floor away from the stairwell and we didn't hear a bit of noise.  Breakfast offered a lot of choices. If  you're traveling with pets, you will appreciate the plentiful potty break areas for the dogs. I would definitely stay here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r335876218-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335876218</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The rooms were in great condition and very clean the rates were very reasonable. a great hotel I will stay there every time I return to Houston. They have a very good breakfast that runs from 6:00 am to 9:00 am. They have a nice looking bar, but it is not open yet.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>The rooms were in great condition and very clean the rates were very reasonable. a great hotel I will stay there every time I return to Houston. They have a very good breakfast that runs from 6:00 am to 9:00 am. They have a nice looking bar, but it is not open yet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r321064552-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321064552</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Excellent accomodations</t>
+  </si>
+  <si>
+    <t>Our recent stay at LaQuinta Inn was fabulous.  Our AC went out at home and we needed last mnute accommodations.  Everything was clean and convenient.  The staff was friendly and helpful.  Breakfast was incredible!  I especially enjoyed the sausage and waffles.  I highly recommend this location for stays in HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>lq6489gm, Manager at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Our recent stay at LaQuinta Inn was fabulous.  Our AC went out at home and we needed last mnute accommodations.  Everything was clean and convenient.  The staff was friendly and helpful.  Breakfast was incredible!  I especially enjoyed the sausage and waffles.  I highly recommend this location for stays in HoustonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r313457769-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313457769</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Quiet, clean and friendly</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel frequently over the past 18 months travelling to Houston area on business.  The rooms, common areas, and grounds are always clean and well kept.  The staff is very friendly and helpful.  The area is accessible to shopping and a large variety of places to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>lq6489gm, Director of Sales at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel frequently over the past 18 months travelling to Houston area on business.  The rooms, common areas, and grounds are always clean and well kept.  The staff is very friendly and helpful.  The area is accessible to shopping and a large variety of places to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r311171218-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311171218</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Business Travel Excellent Stay</t>
+  </si>
+  <si>
+    <t>Sanitation was superb, the gym contained all newer equipment and was spacious.  Customer service was great the moment I walked in the door.  Restaurants and freeway located in close proximity to the hotel.  The hotel was recently renovated and you can tell... I will definitely use this location again when passing through for work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r302338447-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302338447</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>nice stay</t>
+  </si>
+  <si>
+    <t>appears that they have recently renovated and the team here is very pleasant and overall the stay has been great to include very clean room and everything is new in the room...I dont have anything negative to share on this one.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r300488208-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300488208</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>La Quinta Channelview is a clean, family friendly place to stay. Breakfast was good. The pool is a nice size but this area needs ventilation or use less clorine. The night security guard was circling the enclosed parking area which made us feel very safe in this hotel, even when getting back late in the evening.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r301715764-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301715764</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>This hotel had everything I needed.  It was very easy to get to, the front desk personnel were very friendly and helpful.  The room was clean, nicely designed, and the bed was very comfortable.  I would definitely stay here again if the need arose.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r289731062-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289731062</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay.  I really enjoyed the breakfast.  I would rate La Quinta in the top five places to stay given the service, facilities, the fact that you have a full breakfast, and cleanliness.  I would recommend La Quinta to friends and family and tell theem what kind of experience I had.  I really enjoyed the breakfast and the fact that you actually get a full breakfast.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r287089032-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287089032</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Keep it up La Quinta</t>
+  </si>
+  <si>
+    <t>This was not my first stay at La Quinta ChannelView and I must say that I was not disappointed before and I'm not disappointed now. As usual the staff was friendly and helpful, the service was prompt,and efficient and there were plenty of clean towels in clean, comfortable bathrooms. I will certainly be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r278647727-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278647727</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>This La Quinta in Channelview is very nice, clean, comfortable beds and the shower is hot with plenty of pressure...one of my pet peeves. They have a security guard at night so I always knew my car was safe. The young lady that handles the breakfast bar in morning is GREAT! Always has a smile, friendly and the food is good and hot!! Housekeeping is very good. Would highly recommend this location!!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r274030281-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274030281</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Poor construction not for families with small children</t>
+  </si>
+  <si>
+    <t>I was there for two weeks. Very beautiful spacious rooms we were paying for a suite. For an extended stay we expect better accommodations. Kitchen does not have barstools to sit and eat kitchen sink is smaller than a restroom sink. No kitchen lights I had to take a lamp from the room to have light in the kitchen. The construction of the hotel is poor. Floors are so thin everytime we walk the whole floor vibrates. We constantly had calls of the person downstairs complaining of noise. It's supposed to be a family friendly hotel and with two toddlers it was a nightmare the whole stay because of the poor construction. We kept insisting on getting a room downstairs and we were asked to move to the fourth floor. With construction going on elevators were not always working and with two small children it's not the best option to use the stairs from the fourth floor.  The person complaining downstairs to us was a lier saying he couldn't sleep because of our noise we would go to bed no later than 9:30pm and we were not even in the room at times during the day. He also kept hitting his cealing so we knew he was upset. We came to a point of tip-toeing. And kids were spending all day in bed.  If one door down the hallway shuts you can hear it as if it's next to you....I was there for two weeks. Very beautiful spacious rooms we were paying for a suite. For an extended stay we expect better accommodations. Kitchen does not have barstools to sit and eat kitchen sink is smaller than a restroom sink. No kitchen lights I had to take a lamp from the room to have light in the kitchen. The construction of the hotel is poor. Floors are so thin everytime we walk the whole floor vibrates. We constantly had calls of the person downstairs complaining of noise. It's supposed to be a family friendly hotel and with two toddlers it was a nightmare the whole stay because of the poor construction. We kept insisting on getting a room downstairs and we were asked to move to the fourth floor. With construction going on elevators were not always working and with two small children it's not the best option to use the stairs from the fourth floor.  The person complaining downstairs to us was a lier saying he couldn't sleep because of our noise we would go to bed no later than 9:30pm and we were not even in the room at times during the day. He also kept hitting his cealing so we knew he was upset. We came to a point of tip-toeing. And kids were spending all day in bed.  If one door down the hallway shuts you can hear it as if it's next to you. Management were not very friendly when it came to us telling them to switch rooms with the man complaining  so everyone would be happy. We were told he was an extended stay and he had preference.  We are Elite members and very often extended stay of la quinta and never had problems before like we did in this particular hotel. We had to move to another hotel mainly because we were concerned for our safety and scared that the obsessed man downstairs would hurt us. Staff knew about this. Rant over... thanksMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I was there for two weeks. Very beautiful spacious rooms we were paying for a suite. For an extended stay we expect better accommodations. Kitchen does not have barstools to sit and eat kitchen sink is smaller than a restroom sink. No kitchen lights I had to take a lamp from the room to have light in the kitchen. The construction of the hotel is poor. Floors are so thin everytime we walk the whole floor vibrates. We constantly had calls of the person downstairs complaining of noise. It's supposed to be a family friendly hotel and with two toddlers it was a nightmare the whole stay because of the poor construction. We kept insisting on getting a room downstairs and we were asked to move to the fourth floor. With construction going on elevators were not always working and with two small children it's not the best option to use the stairs from the fourth floor.  The person complaining downstairs to us was a lier saying he couldn't sleep because of our noise we would go to bed no later than 9:30pm and we were not even in the room at times during the day. He also kept hitting his cealing so we knew he was upset. We came to a point of tip-toeing. And kids were spending all day in bed.  If one door down the hallway shuts you can hear it as if it's next to you....I was there for two weeks. Very beautiful spacious rooms we were paying for a suite. For an extended stay we expect better accommodations. Kitchen does not have barstools to sit and eat kitchen sink is smaller than a restroom sink. No kitchen lights I had to take a lamp from the room to have light in the kitchen. The construction of the hotel is poor. Floors are so thin everytime we walk the whole floor vibrates. We constantly had calls of the person downstairs complaining of noise. It's supposed to be a family friendly hotel and with two toddlers it was a nightmare the whole stay because of the poor construction. We kept insisting on getting a room downstairs and we were asked to move to the fourth floor. With construction going on elevators were not always working and with two small children it's not the best option to use the stairs from the fourth floor.  The person complaining downstairs to us was a lier saying he couldn't sleep because of our noise we would go to bed no later than 9:30pm and we were not even in the room at times during the day. He also kept hitting his cealing so we knew he was upset. We came to a point of tip-toeing. And kids were spending all day in bed.  If one door down the hallway shuts you can hear it as if it's next to you. Management were not very friendly when it came to us telling them to switch rooms with the man complaining  so everyone would be happy. We were told he was an extended stay and he had preference.  We are Elite members and very often extended stay of la quinta and never had problems before like we did in this particular hotel. We had to move to another hotel mainly because we were concerned for our safety and scared that the obsessed man downstairs would hurt us. Staff knew about this. Rant over... thanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r268446932-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268446932</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>It was late on a stormy night when I arrived. There were two other parties in front of me, both with obvious challenges. The front desk clerk promptly checked me in (less than 3 minutes) and I was off to my super-clean and very comfortable room. Slept like a baby. Would definitely stay there again and tell others, too.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r267655862-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267655862</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Love La Quinta</t>
+  </si>
+  <si>
+    <t>This is my favorite place to stay in the area.  It is clean, breakfast is yummy and free. Don't let the inexpensive price fool you - this is a great hotel.  The beds are so comfortable and I loved the pillows so much I bought one.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r258201867-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258201867</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>MEH</t>
+  </si>
+  <si>
+    <t>It is not the worst Hotel I have ever stayed at. However, if you are the type of person that likes to be pampered and attended to, you probably won't like it here. You'll get a wonderful "just enough" feeling from the staff. They will do just enough to keep from being fired or disciplined, but you can definitely tell they're not doing it for you. They just don't want to go job hunting.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r253467909-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253467909</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Very Satisfied</t>
+  </si>
+  <si>
+    <t>LaQuinta is a great hotel and works out well for me. It is a very popular hotel so get your reservations ahead of time. I stay at LaQuinta Hotels every chance I have a need for a  place to stay when I am out of town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r253922345-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253922345</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Rooms very clean and accomadating staff reall friendly breakfast very good great location to get anywhere restaurants and shops close by lots of parking to cover all types of vehicles some rooms have extras like the corners might have a back balcony which adds a little outdoor space if weather is good</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r243281753-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243281753</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>Hotel was nice, clean and staff was very helpful and friendly. However, it is close to the highway and the noise from the highway is very loud! Breakfast usual fare with eggs, meat, breads, etc. Lots of restaurants in the area to choose from.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r239033360-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239033360</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>It was necessary to find a placed to stay overnight as my home had been broken into.  I found that the LaQuinta was very accommodating and had the room ready when we arrived.  I would recommend this hotel to anyone at this time.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r238561558-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238561558</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r234199129-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234199129</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay!!!</t>
+  </si>
+  <si>
+    <t>I stay here a lot , staff is real friendly &amp; rooms are nice &amp; clean. I would recommend this hotel to everybody. When I'm on the east side of Houston this is the onlyplace I will stay.  It also has night security &amp; we have never had any tools or anythingtook off the back of our trucks. Excellent hotel when working out of town.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r233686633-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233686633</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>Brittany Needs To Know How To Treat A Customer</t>
+  </si>
+  <si>
+    <t>I have been using La Quintas for quite a while. I am not saying I need to be treated like I am an Elite Returns Club member, but it should garner something. I have been a member so long that I don't have a letter to start off my member number and it is only 6 digits long. This along with the fact that the rooms were priced what they were at this location should equal me being treated like a customer and not a bother. In fact forget that I am a member at all. A brand new first time customer should be treated like they are welcomed. Unfortunately, no one has told Brittany this. I don't ask for much, and I can put up with a bit, but this person seemed to delight in giving attitude to me instead of assistance. I have dealt with her twice now and both times left me hanging up in a rage. I am sorry she doesn't know how to do her job, but this is not my fault, so to be treated like she thought my questions were designed to make her look foolish is not acceptable. I do not like to be told how to do my job, so I will not tell this locations Management how to do theirs, but I will make a suggestion. Perhaps sending this employee back to training, or if that can't be done I...I have been using La Quintas for quite a while. I am not saying I need to be treated like I am an Elite Returns Club member, but it should garner something. I have been a member so long that I don't have a letter to start off my member number and it is only 6 digits long. This along with the fact that the rooms were priced what they were at this location should equal me being treated like a customer and not a bother. In fact forget that I am a member at all. A brand new first time customer should be treated like they are welcomed. Unfortunately, no one has told Brittany this. I don't ask for much, and I can put up with a bit, but this person seemed to delight in giving attitude to me instead of assistance. I have dealt with her twice now and both times left me hanging up in a rage. I am sorry she doesn't know how to do her job, but this is not my fault, so to be treated like she thought my questions were designed to make her look foolish is not acceptable. I do not like to be told how to do my job, so I will not tell this locations Management how to do theirs, but I will make a suggestion. Perhaps sending this employee back to training, or if that can't be done I suggest putting her in a position that doesn't allow her to interact with customers on the phone or face to face. Something in the back. That is of course unless you don't mind people like myself who will avoid this location like the plague because you have decided to have an employee who feels she is better than her job description and your customers and doesn't mind making sure we know it. I have moved my reservation to the location off of Normandy Street and am happier for it. I only regret that I allowed money to be spent at this location the week prior.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been using La Quintas for quite a while. I am not saying I need to be treated like I am an Elite Returns Club member, but it should garner something. I have been a member so long that I don't have a letter to start off my member number and it is only 6 digits long. This along with the fact that the rooms were priced what they were at this location should equal me being treated like a customer and not a bother. In fact forget that I am a member at all. A brand new first time customer should be treated like they are welcomed. Unfortunately, no one has told Brittany this. I don't ask for much, and I can put up with a bit, but this person seemed to delight in giving attitude to me instead of assistance. I have dealt with her twice now and both times left me hanging up in a rage. I am sorry she doesn't know how to do her job, but this is not my fault, so to be treated like she thought my questions were designed to make her look foolish is not acceptable. I do not like to be told how to do my job, so I will not tell this locations Management how to do theirs, but I will make a suggestion. Perhaps sending this employee back to training, or if that can't be done I...I have been using La Quintas for quite a while. I am not saying I need to be treated like I am an Elite Returns Club member, but it should garner something. I have been a member so long that I don't have a letter to start off my member number and it is only 6 digits long. This along with the fact that the rooms were priced what they were at this location should equal me being treated like a customer and not a bother. In fact forget that I am a member at all. A brand new first time customer should be treated like they are welcomed. Unfortunately, no one has told Brittany this. I don't ask for much, and I can put up with a bit, but this person seemed to delight in giving attitude to me instead of assistance. I have dealt with her twice now and both times left me hanging up in a rage. I am sorry she doesn't know how to do her job, but this is not my fault, so to be treated like she thought my questions were designed to make her look foolish is not acceptable. I do not like to be told how to do my job, so I will not tell this locations Management how to do theirs, but I will make a suggestion. Perhaps sending this employee back to training, or if that can't be done I suggest putting her in a position that doesn't allow her to interact with customers on the phone or face to face. Something in the back. That is of course unless you don't mind people like myself who will avoid this location like the plague because you have decided to have an employee who feels she is better than her job description and your customers and doesn't mind making sure we know it. I have moved my reservation to the location off of Normandy Street and am happier for it. I only regret that I allowed money to be spent at this location the week prior.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r230887095-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230887095</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>La Quinta Inn  6489 Channelview, Tx</t>
+  </si>
+  <si>
+    <t>Stopped and stayed here overnight due to traveling. Nice hotel and pretty new. Clean place. Nice staff and good breakfast.  No issues at all but on a busy freeway and hard to get to. It is on the east side of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>lqchannelview, Director of Sales at La Quinta Inn &amp; Suites Houston Channelview, responded to this reviewResponded September 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2014</t>
+  </si>
+  <si>
+    <t>Stopped and stayed here overnight due to traveling. Nice hotel and pretty new. Clean place. Nice staff and good breakfast.  No issues at all but on a busy freeway and hard to get to. It is on the east side of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r222097836-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222097836</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Good breakfast</t>
+  </si>
+  <si>
+    <t>Well, not exactly. This was my third stay at this hotel this year and I must say I will most likely not return for another. My check in and out experiences were both wonderful. The hotel overall is clean and with a great pool and gym. On Thursday my stay at the hotel went south. The lady that worked the breakfast bar and another employee of the hotel were having a very loud conversation about a Facebook posting on her cell phone. They were so loud that a group of guests could no longer continue their conversation. When the lady blurted an obscenity at the male employee I politely got up, threw my food in the trash and left the hotel. On my way out another male employee jovially greeted a frequent guest and called him a name that is only derogatory if you are not of the same race as the two acquaintances. The young woman from the front desk seemed to  notice none of the events; she was on her phone as well. Needless to say, I don't care to stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Well, not exactly. This was my third stay at this hotel this year and I must say I will most likely not return for another. My check in and out experiences were both wonderful. The hotel overall is clean and with a great pool and gym. On Thursday my stay at the hotel went south. The lady that worked the breakfast bar and another employee of the hotel were having a very loud conversation about a Facebook posting on her cell phone. They were so loud that a group of guests could no longer continue their conversation. When the lady blurted an obscenity at the male employee I politely got up, threw my food in the trash and left the hotel. On my way out another male employee jovially greeted a frequent guest and called him a name that is only derogatory if you are not of the same race as the two acquaintances. The young woman from the front desk seemed to  notice none of the events; she was on her phone as well. Needless to say, I don't care to stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r221916867-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221916867</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Cleaness</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and was located close to downtown Houston. Very good dinning places close by. Had very good breakfast, but if you stay over 3 nights, the menu never changes. Lots of good shopping near by.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r221470073-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221470073</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r217368519-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217368519</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Summit</t>
+  </si>
+  <si>
+    <t>Hotel was fairly new. Rooms were clean and well maintained. Felt safe while staying at the location. Beds were very comfortable. Good channel selection on the room TV's. Same boring items on the breakfast menu. It would be nice if a hotel manager would be a little more creative with the items. Microwaved scrambled eggs and soy sausage is pretty lame.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r214848588-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214848588</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for one night. I wish I could have stayed longer. The hotel is easily accessible to major highways and has a plethora of nice restaurants nearby. The hotel was very clean and had a refrigerator and microwave inside. The bed was very comfortable and the television has lots of channels. Although I didn't have time to eat it, breakfast was available free of charge. In addition, there was no fee for parking or wifi.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r211308297-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211308297</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>The hotel is great for the most part. The only problem that I had was that the water pressure in the shower was extremely low. There are new items on the breakfast bar that are a great addition also. My overall experience was graet and I would not hesitate to stay there again, and recommend it to any one that is looking for a great hotel in that area.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r205413963-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205413963</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Good condition, bad location</t>
+  </si>
+  <si>
+    <t>This La Quinta is a newer property, very clean and well-kept.  The location is nothing special, right by Beltway 8 (front door faces the north parking lot rather than the road).  The night desk manager seemed irritated when we arrived around midnight and was in no hurry to unlock the front entrance.  We were in a room on the freeway end of the property, and the road noise was very noticeable - I wished that I had requested a room at the back of the hotel.  Also, we had a "balcony" room, which is a terrible idea; the balcony itself is tiny and overlooks the noisy freeway, and the balcony door contains a window with useless built-in mini-blinds that still let in tons of ambient light from the parking lot at night.  It was like sleeping with a TV right in your face. We suggested to the manager that a curtain over the door would be really helpful.The breakfast looked adequate, though we had other plans and didn't sample anything.  I would stay there again for a quick overnight trip if I could be guaranteed that I would have a room away from the road with no balcony.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>This La Quinta is a newer property, very clean and well-kept.  The location is nothing special, right by Beltway 8 (front door faces the north parking lot rather than the road).  The night desk manager seemed irritated when we arrived around midnight and was in no hurry to unlock the front entrance.  We were in a room on the freeway end of the property, and the road noise was very noticeable - I wished that I had requested a room at the back of the hotel.  Also, we had a "balcony" room, which is a terrible idea; the balcony itself is tiny and overlooks the noisy freeway, and the balcony door contains a window with useless built-in mini-blinds that still let in tons of ambient light from the parking lot at night.  It was like sleeping with a TV right in your face. We suggested to the manager that a curtain over the door would be really helpful.The breakfast looked adequate, though we had other plans and didn't sample anything.  I would stay there again for a quick overnight trip if I could be guaranteed that I would have a room away from the road with no balcony.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r204887360-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204887360</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Thought there would be more</t>
+  </si>
+  <si>
+    <t>Business desk in room was real low, very unstable table, chair was extremely low so tough to work on business work and could not increase.  Bathrooms had hardwood floor which was okay but did not realize how much one likes tile flooring in bathroom.  Elevators seemed a bit trouble some and loud but worked. TV and Beds were fine, no restaurant in hotel - so had to order out from some pizza joint. Breakfast was included - bagels / muffins where all pre-packaged,  enough to get your 800 calories for breakfast and then on your way.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r203524208-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203524208</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r199988622-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199988622</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>LaQuinta Sam Houston Parkway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel for us.  Fits our needs &amp; budget when we travel to Houston.  We appreciate Brittany taking great care of us when booking our rooms.  She has been the best one to work with of all the people we have talked to at both the property and when we call in to the reservation center.  I must say that all of the folks who work at the front desk at this hotel are very nice and professional.  They are very cordial when greet you as well as when they check you in and out.  We will continue to stay at this hotel on a regular basis.  </t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r199973939-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199973939</t>
+  </si>
+  <si>
+    <t>Relaxing Spot</t>
+  </si>
+  <si>
+    <t>Overall a great stay.  A professional and courteous staff that seemed to enjoy talking with their patrons.  The building is in great shape as well as the rooms.  Even enjoyed the décor outside with their palm trees angled.  Gazebos outside for the smokers, bbq's there too.  Up to date and good size TV in the room, adequate outlets for computers, chargers, etc.. and nice furniture in the rooms.  Only real problem I had was the internet connection (good to the router) was horrible and slow and unfortunately couldn't complete my reporting tasks so I opted to save what I could and would complete somewhere else.  Had to leave before breakfast, but the dining area looked to be well laid out and clean.  Would like to stay at this place again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall a great stay.  A professional and courteous staff that seemed to enjoy talking with their patrons.  The building is in great shape as well as the rooms.  Even enjoyed the décor outside with their palm trees angled.  Gazebos outside for the smokers, bbq's there too.  Up to date and good size TV in the room, adequate outlets for computers, chargers, etc.. and nice furniture in the rooms.  Only real problem I had was the internet connection (good to the router) was horrible and slow and unfortunately couldn't complete my reporting tasks so I opted to save what I could and would complete somewhere else.  Had to leave before breakfast, but the dining area looked to be well laid out and clean.  Would like to stay at this place again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r198770078-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198770078</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>LaQuinta-Beltway 8</t>
+  </si>
+  <si>
+    <t>This is a very nice property and conviently located for my business purposes. The rooms are clean and maintained daily. Staff are polite and courteous and always willing to help. There are a number of resturants close by. They offer a nice Breakfeat each morning and there is also an indoor pool. I used the Meeting Room one week and the staff was very professional in there duties.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r191389995-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191389995</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>Horrible nighttime service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was great, but as we are a family of five, we went down to ask for an extra towel and sheets for the sofa bed. Employee was on a personal phone call. He refused to give us an extra towel, saying that's what the hand towels are for. He also only wanted to give one top sheet and a blanket for the sofa sleeper, as they don't give out two sheets for a bed. We finally convinced him that we needed another sheet, but he would not concede on the extra towel.We've NEVER run into this in all of our family travels. </t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r186149626-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186149626</t>
+  </si>
+  <si>
+    <t>11/28/2013</t>
+  </si>
+  <si>
+    <t>Good, but still some flaws</t>
+  </si>
+  <si>
+    <t>Ah yes, nothing says being in oil refinery country like looking out your hotel window to see a refinery stack burning waste fuel and lighting up the night sky! Despite the harsh night skyline, this La Quinta does a number of things well and provided a very good stay.  Entry into the lobby shows an expansive room with ample lighting and staff quick to help.  The hotel is VERY clean in all areas and well lit.  My room featured a king bed, quite comfortable, but was on the smallish side.  Not a big deal since I didn't need a lot of room.  The room did have a fridge, microwave, and medium-sized flatscreen LCD TV with great channel selection.  The bathroom was very clean, well lit, but was a bit light on the amenities. One small shampoo bottle and a bar of soap isn't even up to other La Quinta standards.  Nevertheless it worked for me.My biggest disappointment was with the breakfast buffet. A staffer was in the area but said nothing to me and never offered to help or make me a waffle or whatever.  They were too busy chatting with a friend in the room.  The buffet selection itself was typical LQ.  Nothing special but satisfactory.  It could have been better.Overall, I definitely would stay here again but there's a bit of work to be done before I'd be calling this 5-star comparable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Ah yes, nothing says being in oil refinery country like looking out your hotel window to see a refinery stack burning waste fuel and lighting up the night sky! Despite the harsh night skyline, this La Quinta does a number of things well and provided a very good stay.  Entry into the lobby shows an expansive room with ample lighting and staff quick to help.  The hotel is VERY clean in all areas and well lit.  My room featured a king bed, quite comfortable, but was on the smallish side.  Not a big deal since I didn't need a lot of room.  The room did have a fridge, microwave, and medium-sized flatscreen LCD TV with great channel selection.  The bathroom was very clean, well lit, but was a bit light on the amenities. One small shampoo bottle and a bar of soap isn't even up to other La Quinta standards.  Nevertheless it worked for me.My biggest disappointment was with the breakfast buffet. A staffer was in the area but said nothing to me and never offered to help or make me a waffle or whatever.  They were too busy chatting with a friend in the room.  The buffet selection itself was typical LQ.  Nothing special but satisfactory.  It could have been better.Overall, I definitely would stay here again but there's a bit of work to be done before I'd be calling this 5-star comparable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r183681757-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183681757</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r163714669-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163714669</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r161983598-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161983598</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Great staff!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice and fairly new Hotel with nice ammenities. I particularly enjoyed the pavilion with BBQ grills and the Gazebos. The friendliness of the staff was a breath of fresh air.Rooms were clean and the Hotel was kept up very nicely. The grounds were maintained well with great landscaping and water features. </t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r160300382-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160300382</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Was in town for the dog show and this was the host hotel.  It is a very nice hotel.  The front office staff were very polite and helpful.  They had a good breakfast and a big area for the breakfast.  They had a great place to walk dogs.  The rooms were big and comfortable.  Plenty of room.  Beds were comfortable.  Will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r154860949-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154860949</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Above average La Quinta</t>
+  </si>
+  <si>
+    <t>Anything that has stayed at LaQuinta hotels knows that there is a wide range of what you might expect.  It could range from a low-budget motel type experience to something close to a value 3 star hotel (nice Holiday Inn Express).This is one of the better La Quinta Hotels.  The property seems to be well built and well-maintained.  The beds and linens are basic, but comfortable.The breakfast is one area that could be improved.  It appears to be the standard LaQuinta breakfast with cereal, bread, waffle maker, juice machine, coffee, and bland egg, biscuit, and sausage.  It is okay, but the addition of fresh fruit would be nice.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r153548741-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153548741</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Pet friendly, INDOOR POOL, Big rooms with frig, microwave, many cable channels, easy to find, free breakfast,  laundry room, close to many stores and restaurants, And Kim at front desk was very helpful and patient as I called her with questions!Houston has horrible roads needing repair and alot of traffic!If I ever needed to stay in this area again I would stay at this nicely decorated hotel!Stayed on 4th floor and could hear traffic but didn't really bother me.Thanks Kim at front desk for being kind and helpful! !!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r153128614-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153128614</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r148795813-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148795813</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r147614080-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147614080</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r145313212-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145313212</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>Stayed eight days at this hotel and was pleasantly surprised by the cleanliness,neatness and overall treatment. Very pleasant and helpfull front desk attendants, relaxing atmosphere and by the way...no shortage of towels. Will definitely stay here again and reccommend my friends to do the same. Keep up the standard!</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r137848521-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137848521</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Gorgeous hotel</t>
+  </si>
+  <si>
+    <t>Beautiful hotel in a great location. The rooms were clean and comfortable. Walking in I was truly pleased with the hotels wow factor. The staff was very accommodating and quite pleasant. We will definitely have another get away.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r135651677-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135651677</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Room was as nice as some of the upscale hotels</t>
+  </si>
+  <si>
+    <t>We only stayed one night as this was just a stopping off point for us on the way somewhere else. However, it was nice that the let us check in early since we stopped here earlier than we predicted due to some rain. The gentleman that checked us in wasn't exactly warm (I asked if we could check in early and he never exactly answered but then checked us in) and didn't really impress me. I kind of had low expectations after this, and was consequently surprised by the room once we got there. 
+I think this is a relatively new property and the room was similar to the Sheraton we stayed in the night before (the beds were actually firmer which is better for my back). As an added plus, there was both a microwave and a refrigerator, which the Sheraton didn't have. They do an okay free breakfast (waffles, toast, bagels and that sort of thing) and the staff around that in the morning seemed much nicer than the guy who checked us in the afternoon before (I think he might have been the manager).
+The location worked fine for us since we were actually just needing to stop for the night and continue a trip to another state, but unless you had something to do in the immediate area I wouldn't say it is convenient to the rest of Houston. I saw that someone posted that it...We only stayed one night as this was just a stopping off point for us on the way somewhere else. However, it was nice that the let us check in early since we stopped here earlier than we predicted due to some rain. The gentleman that checked us in wasn't exactly warm (I asked if we could check in early and he never exactly answered but then checked us in) and didn't really impress me. I kind of had low expectations after this, and was consequently surprised by the room once we got there. I think this is a relatively new property and the room was similar to the Sheraton we stayed in the night before (the beds were actually firmer which is better for my back). As an added plus, there was both a microwave and a refrigerator, which the Sheraton didn't have. They do an okay free breakfast (waffles, toast, bagels and that sort of thing) and the staff around that in the morning seemed much nicer than the guy who checked us in the afternoon before (I think he might have been the manager).The location worked fine for us since we were actually just needing to stop for the night and continue a trip to another state, but unless you had something to do in the immediate area I wouldn't say it is convenient to the rest of Houston. I saw that someone posted that it was close to restaurants and shopping but I never really saw much right around it. Maybe it was well past the hotel and we only went far enough down to turn around and go back the other way so we would have missed anything any distance down the road that way.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We only stayed one night as this was just a stopping off point for us on the way somewhere else. However, it was nice that the let us check in early since we stopped here earlier than we predicted due to some rain. The gentleman that checked us in wasn't exactly warm (I asked if we could check in early and he never exactly answered but then checked us in) and didn't really impress me. I kind of had low expectations after this, and was consequently surprised by the room once we got there. 
+I think this is a relatively new property and the room was similar to the Sheraton we stayed in the night before (the beds were actually firmer which is better for my back). As an added plus, there was both a microwave and a refrigerator, which the Sheraton didn't have. They do an okay free breakfast (waffles, toast, bagels and that sort of thing) and the staff around that in the morning seemed much nicer than the guy who checked us in the afternoon before (I think he might have been the manager).
+The location worked fine for us since we were actually just needing to stop for the night and continue a trip to another state, but unless you had something to do in the immediate area I wouldn't say it is convenient to the rest of Houston. I saw that someone posted that it...We only stayed one night as this was just a stopping off point for us on the way somewhere else. However, it was nice that the let us check in early since we stopped here earlier than we predicted due to some rain. The gentleman that checked us in wasn't exactly warm (I asked if we could check in early and he never exactly answered but then checked us in) and didn't really impress me. I kind of had low expectations after this, and was consequently surprised by the room once we got there. I think this is a relatively new property and the room was similar to the Sheraton we stayed in the night before (the beds were actually firmer which is better for my back). As an added plus, there was both a microwave and a refrigerator, which the Sheraton didn't have. They do an okay free breakfast (waffles, toast, bagels and that sort of thing) and the staff around that in the morning seemed much nicer than the guy who checked us in the afternoon before (I think he might have been the manager).The location worked fine for us since we were actually just needing to stop for the night and continue a trip to another state, but unless you had something to do in the immediate area I wouldn't say it is convenient to the rest of Houston. I saw that someone posted that it was close to restaurants and shopping but I never really saw much right around it. Maybe it was well past the hotel and we only went far enough down to turn around and go back the other way so we would have missed anything any distance down the road that way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r135238999-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135238999</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r134222911-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134222911</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r133073232-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133073232</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r132854332-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132854332</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>CRAP</t>
+  </si>
+  <si>
+    <t>Arrived at hotel at 9:00pm and unpacked and went to front desk to ask for some tooth paste, woman attendant said they were out .left came back an hour later and a man was at counter, ask again and viola tooth paste. Returned to room and TV not working. Called front desk and same man said he would check it out.  Never came! Next morning went in restroom to shower and a brown spider was in the bathtub looked like brown recluseso Iwashed it down the drain.Checked out at noon the next day reported what happen  to front desk and all the attendant said she could do was aplogized. From this day foward I pledge never again to visit a LaQuinta Inn or SuiteMoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived at hotel at 9:00pm and unpacked and went to front desk to ask for some tooth paste, woman attendant said they were out .left came back an hour later and a man was at counter, ask again and viola tooth paste. Returned to room and TV not working. Called front desk and same man said he would check it out.  Never came! Next morning went in restroom to shower and a brown spider was in the bathtub looked like brown recluseso Iwashed it down the drain.Checked out at noon the next day reported what happen  to front desk and all the attendant said she could do was aplogized. From this day foward I pledge never again to visit a LaQuinta Inn or SuiteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r131266958-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131266958</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>Excellent with great breakfast buffet</t>
+  </si>
+  <si>
+    <t>All I can say is this hotel is one of the best hotels I have stayed at to not be a high dollar place.  The rooms are large with micro wave and refrigerator.  The lobby was just like home and the eating area was top of the line.  It even has an internet bar where you can plug in to charge up.If you're going to be in east Houston, this is the place you want to stay.  I highly recommend this La Quinta.  The pool is indoors and heated.  They plan to build an outdoor one in the future.  There is even an area to grill.  Two giant grills with covered area and there are also 2 gazebos.  GREAT PLACE!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>All I can say is this hotel is one of the best hotels I have stayed at to not be a high dollar place.  The rooms are large with micro wave and refrigerator.  The lobby was just like home and the eating area was top of the line.  It even has an internet bar where you can plug in to charge up.If you're going to be in east Houston, this is the place you want to stay.  I highly recommend this La Quinta.  The pool is indoors and heated.  They plan to build an outdoor one in the future.  There is even an area to grill.  Two giant grills with covered area and there are also 2 gazebos.  GREAT PLACE!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r130535953-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130535953</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>It was a great stay!!!</t>
+  </si>
+  <si>
+    <t>Almost everything about this stay was great!!!! The only thing I would suggest is having breakfast stay open a little later...... We turned in late on Saturday so we missed breakfast by 15 minutes..... overall a great stay !!! Cant wait to be there again......</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r130417219-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130417219</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r116830490-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116830490</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 3 nights.  This is a new hotel &amp; they are still putting the finishing touches on around the building. We stayed in room 319.  The room was very large  - 2 beds a sitting area, wardrobe and good size bathroom.  Good selection of foods at the breakfast buffet.  Indoor salt water pool and gym on property.  Good lighting in bathroom.  Enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r116639258-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116639258</t>
+  </si>
+  <si>
+    <t>08/12/2011</t>
+  </si>
+  <si>
+    <t>Very nice hotel at a very reasonable cost</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel recently for a wedding. The rooms were very nice and clean.service was great and the hotel crew was very courteous. Breakfast was ok but for the price of stay then it is great compare to other hotels that you pay  twice as much  for the same breakfast. We were even allowed  to sit and clown around with other family members in the lobby until wee hours of the morning with no complaints from hotel crew or other guests. Will definitely be staying there again when visiting the Houston area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r115466793-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115466793</t>
+  </si>
+  <si>
+    <t>07/17/2011</t>
+  </si>
+  <si>
+    <t>Beautiful &amp; Clean!!!</t>
+  </si>
+  <si>
+    <t>This was the cleanest &amp; newest LaQuinta I've ever seen.  I was pleased and well satisfied with everything.  I would recommend this to anyone.  Rooms were very spacious.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r94928666-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>94928666</t>
+  </si>
+  <si>
+    <t>01/30/2011</t>
+  </si>
+  <si>
+    <t>Dirty dirty dirty!</t>
+  </si>
+  <si>
+    <t>This place is very dirty! At first glance you think it'll be your normal hotel but you'll soon realize the filth. The sheets had cigarette burns, the welcome packet had coffee stains, the floors inside the rooms were sticky, and worse of all, I found bugs and hair in all corners I looked! The only okay thing about this place is the location looks somewhat safe.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1511925-r57905399-La_Quinta_Inn_Suites_Houston_Channelview-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>57905399</t>
+  </si>
+  <si>
+    <t>03/06/2010</t>
+  </si>
+  <si>
+    <t>clean, nice, new basic hotel</t>
+  </si>
+  <si>
+    <t>In an industrial area, the area seemed safe I never felt in danger at all, allthough i did not walk anywhere you need a car for sure. not that much stuff around hotel, seems as if the area is just starting to build up but it has plants in the area but you cannot see them from the hotel.The hotel was very very basic but very clean. all new linens freshly painted. nothing bad to say about the hotel at all, service was good at all times, breakfast was ok, had a variety of ceral, bagels, waffles, biscuits, and the eggs where not so great, variety of juice and coffee. The hotel was skimpy on the shampoo for the rooms, no conditioner and no body lotion.the indoor pool was very basic but fun, no hot tub. they had towels in the pool area which i liked.i would stay here again for the price, it was well worth it for the price we got at 59 a room, it is not a 120 room but comparable to a 89 -99 room in houston. it is about 1/2 hour from downtown and about 1/2 from NASA.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>In an industrial area, the area seemed safe I never felt in danger at all, allthough i did not walk anywhere you need a car for sure. not that much stuff around hotel, seems as if the area is just starting to build up but it has plants in the area but you cannot see them from the hotel.The hotel was very very basic but very clean. all new linens freshly painted. nothing bad to say about the hotel at all, service was good at all times, breakfast was ok, had a variety of ceral, bagels, waffles, biscuits, and the eggs where not so great, variety of juice and coffee. The hotel was skimpy on the shampoo for the rooms, no conditioner and no body lotion.the indoor pool was very basic but fun, no hot tub. they had towels in the pool area which i liked.i would stay here again for the price, it was well worth it for the price we got at 59 a room, it is not a 120 room but comparable to a 89 -99 room in houston. it is about 1/2 hour from downtown and about 1/2 from NASA.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2324,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2356,6662 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>121</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>196</v>
+      </c>
+      <c r="X25" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>210</v>
+      </c>
+      <c r="X27" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>219</v>
+      </c>
+      <c r="X28" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>219</v>
+      </c>
+      <c r="X29" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>233</v>
+      </c>
+      <c r="X30" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>232</v>
+      </c>
+      <c r="O31" t="s">
+        <v>241</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>247</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L34" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" t="s">
+        <v>261</v>
+      </c>
+      <c r="L35" t="s">
+        <v>262</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" t="s">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>274</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>276</v>
+      </c>
+      <c r="J38" t="s">
+        <v>277</v>
+      </c>
+      <c r="K38" t="s">
+        <v>278</v>
+      </c>
+      <c r="L38" t="s">
+        <v>279</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>280</v>
+      </c>
+      <c r="O38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>283</v>
+      </c>
+      <c r="J39" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>288</v>
+      </c>
+      <c r="J40" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s">
+        <v>291</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" t="s">
+        <v>295</v>
+      </c>
+      <c r="K41" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>299</v>
+      </c>
+      <c r="X41" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>303</v>
+      </c>
+      <c r="J42" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s">
+        <v>306</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>299</v>
+      </c>
+      <c r="X42" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s">
+        <v>312</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>313</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>299</v>
+      </c>
+      <c r="X43" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>316</v>
+      </c>
+      <c r="J44" t="s">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s">
+        <v>318</v>
+      </c>
+      <c r="L44" t="s">
+        <v>319</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>320</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>321</v>
+      </c>
+      <c r="X44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>324</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>325</v>
+      </c>
+      <c r="J45" t="s">
+        <v>326</v>
+      </c>
+      <c r="K45" t="s">
+        <v>327</v>
+      </c>
+      <c r="L45" t="s">
+        <v>328</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>329</v>
+      </c>
+      <c r="O45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>330</v>
+      </c>
+      <c r="X45" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>334</v>
+      </c>
+      <c r="J46" t="s">
+        <v>335</v>
+      </c>
+      <c r="K46" t="s">
+        <v>336</v>
+      </c>
+      <c r="L46" t="s">
+        <v>337</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>329</v>
+      </c>
+      <c r="O46" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>338</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>339</v>
+      </c>
+      <c r="J47" t="s">
+        <v>340</v>
+      </c>
+      <c r="K47" t="s">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s">
+        <v>342</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>344</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>345</v>
+      </c>
+      <c r="J48" t="s">
+        <v>346</v>
+      </c>
+      <c r="K48" t="s">
+        <v>261</v>
+      </c>
+      <c r="L48" t="s">
+        <v>347</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>343</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>349</v>
+      </c>
+      <c r="J49" t="s">
+        <v>350</v>
+      </c>
+      <c r="K49" t="s">
+        <v>351</v>
+      </c>
+      <c r="L49" t="s">
+        <v>352</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>343</v>
+      </c>
+      <c r="O49" t="s">
+        <v>241</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>354</v>
+      </c>
+      <c r="J50" t="s">
+        <v>355</v>
+      </c>
+      <c r="K50" t="s">
+        <v>356</v>
+      </c>
+      <c r="L50" t="s">
+        <v>357</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>358</v>
+      </c>
+      <c r="O50" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+      <c r="J51" t="s">
+        <v>361</v>
+      </c>
+      <c r="K51" t="s">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>358</v>
+      </c>
+      <c r="O51" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>365</v>
+      </c>
+      <c r="J52" t="s">
+        <v>366</v>
+      </c>
+      <c r="K52" t="s">
+        <v>367</v>
+      </c>
+      <c r="L52" t="s">
+        <v>368</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>369</v>
+      </c>
+      <c r="O52" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>371</v>
+      </c>
+      <c r="J53" t="s">
+        <v>372</v>
+      </c>
+      <c r="K53" t="s">
+        <v>373</v>
+      </c>
+      <c r="L53" t="s">
+        <v>374</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>375</v>
+      </c>
+      <c r="O53" t="s">
+        <v>150</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>377</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>378</v>
+      </c>
+      <c r="J54" t="s">
+        <v>379</v>
+      </c>
+      <c r="K54" t="s">
+        <v>380</v>
+      </c>
+      <c r="L54" t="s">
+        <v>381</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>382</v>
+      </c>
+      <c r="O54" t="s">
+        <v>241</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>383</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" t="s">
+        <v>385</v>
+      </c>
+      <c r="K55" t="s">
+        <v>386</v>
+      </c>
+      <c r="L55" t="s">
+        <v>387</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>382</v>
+      </c>
+      <c r="O55" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>389</v>
+      </c>
+      <c r="J56" t="s">
+        <v>390</v>
+      </c>
+      <c r="K56" t="s">
+        <v>391</v>
+      </c>
+      <c r="L56" t="s">
+        <v>392</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>393</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>394</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>395</v>
+      </c>
+      <c r="J57" t="s">
+        <v>396</v>
+      </c>
+      <c r="K57" t="s">
+        <v>397</v>
+      </c>
+      <c r="L57" t="s">
+        <v>398</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>393</v>
+      </c>
+      <c r="O57" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>399</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>400</v>
+      </c>
+      <c r="J58" t="s">
+        <v>401</v>
+      </c>
+      <c r="K58" t="s">
+        <v>402</v>
+      </c>
+      <c r="L58" t="s">
+        <v>403</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>393</v>
+      </c>
+      <c r="O58" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>404</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>405</v>
+      </c>
+      <c r="J59" t="s">
+        <v>406</v>
+      </c>
+      <c r="K59" t="s">
+        <v>407</v>
+      </c>
+      <c r="L59" t="s">
+        <v>408</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>409</v>
+      </c>
+      <c r="O59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>411</v>
+      </c>
+      <c r="J60" t="s">
+        <v>412</v>
+      </c>
+      <c r="K60" t="s">
+        <v>413</v>
+      </c>
+      <c r="L60" t="s">
+        <v>414</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>415</v>
+      </c>
+      <c r="O60" t="s">
+        <v>121</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>416</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>417</v>
+      </c>
+      <c r="J61" t="s">
+        <v>418</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>415</v>
+      </c>
+      <c r="O61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>419</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>420</v>
+      </c>
+      <c r="J62" t="s">
+        <v>421</v>
+      </c>
+      <c r="K62" t="s">
+        <v>422</v>
+      </c>
+      <c r="L62" t="s">
+        <v>423</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>424</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>425</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>426</v>
+      </c>
+      <c r="J63" t="s">
+        <v>427</v>
+      </c>
+      <c r="K63" t="s">
+        <v>428</v>
+      </c>
+      <c r="L63" t="s">
+        <v>429</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>424</v>
+      </c>
+      <c r="O63" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>431</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>432</v>
+      </c>
+      <c r="J64" t="s">
+        <v>433</v>
+      </c>
+      <c r="K64" t="s">
+        <v>434</v>
+      </c>
+      <c r="L64" t="s">
+        <v>435</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>436</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>437</v>
+      </c>
+      <c r="X64" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>440</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>441</v>
+      </c>
+      <c r="J65" t="s">
+        <v>442</v>
+      </c>
+      <c r="K65" t="s">
+        <v>443</v>
+      </c>
+      <c r="L65" t="s">
+        <v>444</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>445</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>447</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>448</v>
+      </c>
+      <c r="J66" t="s">
+        <v>449</v>
+      </c>
+      <c r="K66" t="s">
+        <v>450</v>
+      </c>
+      <c r="L66" t="s">
+        <v>451</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>445</v>
+      </c>
+      <c r="O66" t="s">
+        <v>121</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>452</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>453</v>
+      </c>
+      <c r="J67" t="s">
+        <v>454</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>445</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>455</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>456</v>
+      </c>
+      <c r="J68" t="s">
+        <v>457</v>
+      </c>
+      <c r="K68" t="s">
+        <v>458</v>
+      </c>
+      <c r="L68" t="s">
+        <v>459</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>460</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>461</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>462</v>
+      </c>
+      <c r="J69" t="s">
+        <v>463</v>
+      </c>
+      <c r="K69" t="s">
+        <v>464</v>
+      </c>
+      <c r="L69" t="s">
+        <v>465</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>460</v>
+      </c>
+      <c r="O69" t="s">
+        <v>65</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>466</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>467</v>
+      </c>
+      <c r="J70" t="s">
+        <v>468</v>
+      </c>
+      <c r="K70" t="s">
+        <v>311</v>
+      </c>
+      <c r="L70" t="s">
+        <v>469</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>470</v>
+      </c>
+      <c r="O70" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>471</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>472</v>
+      </c>
+      <c r="J71" t="s">
+        <v>473</v>
+      </c>
+      <c r="K71" t="s">
+        <v>474</v>
+      </c>
+      <c r="L71" t="s">
+        <v>475</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>476</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>478</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>479</v>
+      </c>
+      <c r="J72" t="s">
+        <v>480</v>
+      </c>
+      <c r="K72" t="s">
+        <v>481</v>
+      </c>
+      <c r="L72" t="s">
+        <v>482</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>476</v>
+      </c>
+      <c r="O72" t="s">
+        <v>65</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>483</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>484</v>
+      </c>
+      <c r="J73" t="s">
+        <v>485</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s">
+        <v>486</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>476</v>
+      </c>
+      <c r="O73" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>488</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>489</v>
+      </c>
+      <c r="J74" t="s">
+        <v>490</v>
+      </c>
+      <c r="K74" t="s">
+        <v>491</v>
+      </c>
+      <c r="L74" t="s">
+        <v>492</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>493</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>494</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>495</v>
+      </c>
+      <c r="J75" t="s">
+        <v>490</v>
+      </c>
+      <c r="K75" t="s">
+        <v>496</v>
+      </c>
+      <c r="L75" t="s">
+        <v>497</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>476</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>500</v>
+      </c>
+      <c r="J76" t="s">
+        <v>501</v>
+      </c>
+      <c r="K76" t="s">
+        <v>502</v>
+      </c>
+      <c r="L76" t="s">
+        <v>503</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>493</v>
+      </c>
+      <c r="O76" t="s">
+        <v>65</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>504</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>505</v>
+      </c>
+      <c r="J77" t="s">
+        <v>506</v>
+      </c>
+      <c r="K77" t="s">
+        <v>507</v>
+      </c>
+      <c r="L77" t="s">
+        <v>508</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>509</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>510</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>511</v>
+      </c>
+      <c r="J78" t="s">
+        <v>512</v>
+      </c>
+      <c r="K78" t="s">
+        <v>513</v>
+      </c>
+      <c r="L78" t="s">
+        <v>514</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>515</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>517</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>518</v>
+      </c>
+      <c r="J79" t="s">
+        <v>519</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>515</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>520</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>521</v>
+      </c>
+      <c r="J80" t="s">
+        <v>522</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>523</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>524</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>525</v>
+      </c>
+      <c r="J81" t="s">
+        <v>526</v>
+      </c>
+      <c r="K81" t="s">
+        <v>527</v>
+      </c>
+      <c r="L81" t="s">
+        <v>528</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>529</v>
+      </c>
+      <c r="O81" t="s">
+        <v>241</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>530</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>531</v>
+      </c>
+      <c r="J82" t="s">
+        <v>532</v>
+      </c>
+      <c r="K82" t="s">
+        <v>533</v>
+      </c>
+      <c r="L82" t="s">
+        <v>534</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>535</v>
+      </c>
+      <c r="O82" t="s">
+        <v>150</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>536</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>537</v>
+      </c>
+      <c r="J83" t="s">
+        <v>538</v>
+      </c>
+      <c r="K83" t="s">
+        <v>539</v>
+      </c>
+      <c r="L83" t="s">
+        <v>540</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>541</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>542</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>543</v>
+      </c>
+      <c r="J84" t="s">
+        <v>544</v>
+      </c>
+      <c r="K84" t="s">
+        <v>545</v>
+      </c>
+      <c r="L84" t="s">
+        <v>546</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>547</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>548</v>
+      </c>
+      <c r="J85" t="s">
+        <v>549</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>550</v>
+      </c>
+      <c r="O85" t="s">
+        <v>65</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>551</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>552</v>
+      </c>
+      <c r="J86" t="s">
+        <v>553</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>554</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>555</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>556</v>
+      </c>
+      <c r="J87" t="s">
+        <v>557</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>554</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>558</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>559</v>
+      </c>
+      <c r="J88" t="s">
+        <v>560</v>
+      </c>
+      <c r="K88" t="s">
+        <v>561</v>
+      </c>
+      <c r="L88" t="s">
+        <v>562</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>563</v>
+      </c>
+      <c r="O88" t="s">
+        <v>150</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>564</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>565</v>
+      </c>
+      <c r="J89" t="s">
+        <v>566</v>
+      </c>
+      <c r="K89" t="s">
+        <v>567</v>
+      </c>
+      <c r="L89" t="s">
+        <v>568</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>569</v>
+      </c>
+      <c r="O89" t="s">
+        <v>121</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>570</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>571</v>
+      </c>
+      <c r="J90" t="s">
+        <v>572</v>
+      </c>
+      <c r="K90" t="s">
+        <v>573</v>
+      </c>
+      <c r="L90" t="s">
+        <v>574</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>575</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>577</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>578</v>
+      </c>
+      <c r="J91" t="s">
+        <v>579</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>575</v>
+      </c>
+      <c r="O91" t="s">
+        <v>121</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>580</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>581</v>
+      </c>
+      <c r="J92" t="s">
+        <v>582</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>575</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>583</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>584</v>
+      </c>
+      <c r="J93" t="s">
+        <v>585</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>586</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>587</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>588</v>
+      </c>
+      <c r="J94" t="s">
+        <v>589</v>
+      </c>
+      <c r="K94" t="s">
+        <v>590</v>
+      </c>
+      <c r="L94" t="s">
+        <v>591</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>586</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>593</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>594</v>
+      </c>
+      <c r="J95" t="s">
+        <v>595</v>
+      </c>
+      <c r="K95" t="s">
+        <v>596</v>
+      </c>
+      <c r="L95" t="s">
+        <v>597</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>598</v>
+      </c>
+      <c r="O95" t="s">
+        <v>121</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>600</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>601</v>
+      </c>
+      <c r="J96" t="s">
+        <v>602</v>
+      </c>
+      <c r="K96" t="s">
+        <v>603</v>
+      </c>
+      <c r="L96" t="s">
+        <v>604</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>598</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>605</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>606</v>
+      </c>
+      <c r="J97" t="s">
+        <v>607</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>598</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>608</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>609</v>
+      </c>
+      <c r="J98" t="s">
+        <v>610</v>
+      </c>
+      <c r="K98" t="s">
+        <v>611</v>
+      </c>
+      <c r="L98" t="s">
+        <v>612</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>613</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>614</v>
+      </c>
+      <c r="J99" t="s">
+        <v>615</v>
+      </c>
+      <c r="K99" t="s">
+        <v>616</v>
+      </c>
+      <c r="L99" t="s">
+        <v>617</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>618</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>619</v>
+      </c>
+      <c r="J100" t="s">
+        <v>620</v>
+      </c>
+      <c r="K100" t="s">
+        <v>621</v>
+      </c>
+      <c r="L100" t="s">
+        <v>622</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>623</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>624</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>625</v>
+      </c>
+      <c r="J101" t="s">
+        <v>626</v>
+      </c>
+      <c r="K101" t="s">
+        <v>627</v>
+      </c>
+      <c r="L101" t="s">
+        <v>628</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>629</v>
+      </c>
+      <c r="O101" t="s">
+        <v>121</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>60081</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>630</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>631</v>
+      </c>
+      <c r="J102" t="s">
+        <v>632</v>
+      </c>
+      <c r="K102" t="s">
+        <v>633</v>
+      </c>
+      <c r="L102" t="s">
+        <v>634</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>635</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
